--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_ETH.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_ETH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6FDC844-F087-4C3B-8B96-1FA8F250D091}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8108E696-CF4B-492E-A397-BAF8820BCBE8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>tab</t>
   </si>
@@ -98,9 +98,6 @@
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
@@ -122,18 +119,12 @@
     <t>School Attendance Profile: primary</t>
   </si>
   <si>
-    <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
-  </si>
-  <si>
     <t>School Attendance Profile: intermediate -- secondary</t>
   </si>
   <si>
     <t>School Attendance Profile: secondary</t>
   </si>
   <si>
-    <t>% of school-aged children of  secondary school age currently attending secondary school or higher</t>
-  </si>
-  <si>
     <t>School Attendance Profile: upper secondary</t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>% of OoS children</t>
   </si>
   <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
-    <t>Lack of appropriate and accessible school</t>
-  </si>
-  <si>
     <t>non_formal</t>
   </si>
   <si>
@@ -212,35 +197,50 @@
     <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
   </si>
   <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
-    <t>The child's disability or health issues prevents them from accessing school</t>
-  </si>
-  <si>
     <t>% of school-aged children accessing education outside of formal schools during the 2023-2024 school year</t>
   </si>
   <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending secondary first cycleschool who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending  secondary second cycle school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>Child needs to work at home or on the household's own farm</t>
-  </si>
-  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>% of school-aged children of intermediate school level age currently attending secondary first cycle or higher</t>
+  </si>
+  <si>
+    <t>% of school-aged children of  secondary school age currently attending secondary second cycle school or higher</t>
+  </si>
+  <si>
+    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2024-2025 school year </t>
+  </si>
+  <si>
+    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2024-2025 school year</t>
+  </si>
+  <si>
+    <t>Cannot afford the direct costs of education, e.g. tuition, supplies, transportation</t>
+  </si>
+  <si>
+    <t>Child needs to work at home or on the household's own farm, i.e. is not earning an income for these activities, but may allow other family members to earn an income</t>
+  </si>
+  <si>
+    <t>Child participating in income generating activities outside of the home</t>
+  </si>
+  <si>
+    <t>The child is too young</t>
+  </si>
+  <si>
+    <t>There is a lack of interest for formal education</t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to direct attack on education</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending secondary  who are at least 2 years above the intended age for their grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +303,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -303,11 +325,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,10 +351,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1" xr:uid="{F5926E20-CCAC-4642-87FD-D0DA4C1FB8CE}"/>
   </cellStyles>
@@ -666,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -716,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -727,7 +761,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -735,15 +769,15 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -791,51 +825,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -847,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,10 +919,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -897,30 +931,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,53 +1000,53 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
-        <v>40</v>
+      <c r="G5" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
-        <v>39</v>
+      <c r="G6" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
-        <v>62</v>
+      <c r="G7" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1059,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1074,26 +1106,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1138,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,12 +1169,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1151,24 +1183,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1213,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,12 +1244,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1226,24 +1258,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1288,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,12 +1319,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1301,24 +1333,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
+      <c r="G2" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1382,18 +1414,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1438,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,36 +1471,36 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
     </row>
